--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104153.985129908</v>
+        <v>2102266.403613506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>156.0476423538178</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761458</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>253.1488561805824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>101.289814786355</v>
       </c>
       <c r="C16" t="n">
-        <v>83.3115249970277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7568420184983</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352483</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>149.2188053444238</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151908</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>87.65220976161997</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.4433890341035</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.4590648403939</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.40064155455105</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965501</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801183</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943739</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571465</v>
+        <v>39.72583251028633</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523545</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373635</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415039</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.7444956504007</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>764.7444956504007</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>764.7444956504007</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>378.9562430521565</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,25 +5042,25 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028587</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>475.323281770639</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.6147079354636</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.2631727657033</v>
+        <v>199.5300356889273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>238.3856187516978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>238.3856187516978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>238.3856187516978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>238.3856187516983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>238.3856187516983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>238.3856187516983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824785</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824785</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188981</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819376</v>
+        <v>330.8254548799446</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819376</v>
+        <v>330.8254548799446</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819376</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5835,13 +5835,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404655</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404655</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1037.195091030811</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>748.0664522443697</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>493.3819640384828</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384828</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404655</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404655</v>
+        <v>199.5300356889272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6072,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028604</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.308300601151</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952641</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583034</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028604</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028604</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726217</v>
+        <v>545.176596586798</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726217</v>
+        <v>545.176596586798</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>395.0599571744624</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>395.0599571744624</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>248.1700096765521</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013487</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075997</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>475.323281770639</v>
+        <v>954.8146123150551</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726217</v>
+        <v>726.8250614170377</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726217</v>
+        <v>726.8250614170377</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.80321985203</v>
+        <v>439.5324299542167</v>
       </c>
       <c r="C31" t="n">
-        <v>430.6279022054941</v>
+        <v>326.3571123076805</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2721280745295</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1198997735074</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569673</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569673</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>137.3441950060297</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818971</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652506</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030917</v>
+        <v>565.4200295030857</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,34 +7111,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,46 +7178,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7409,25 +7409,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,19 +7570,19 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7789,34 +7789,34 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010315</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.0884962179949</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>78.54216539558233</v>
       </c>
       <c r="C16" t="n">
-        <v>83.93529610160016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>9.156986349037854</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.14435374857</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.32565823185747</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.32875571396545</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338673</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904748</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>17.05017942927404</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>9.461745143209413</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.2280819988289</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897879</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862099.2923323689</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896054.4091886259</v>
+        <v>896054.4091886258</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>904006.7165003999</v>
+        <v>904006.7165003998</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
@@ -26341,19 +26341,19 @@
         <v>549209.8854161144</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583906</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086662</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284592</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106733</v>
+        <v>40339.23010106719</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.6304060873</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.2488084574</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.2488084571</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665765</v>
+        <v>-111530.1984925487</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103196</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103197</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177267</v>
+        <v>237206.6187917544</v>
       </c>
       <c r="K6" t="n">
-        <v>368079.8414819783</v>
+        <v>368061.3477440444</v>
       </c>
       <c r="L6" t="n">
-        <v>401551.7872093076</v>
+        <v>401551.7872093074</v>
       </c>
       <c r="M6" t="n">
         <v>277093.6787763368</v>
       </c>
       <c r="N6" t="n">
-        <v>411894.6940101741</v>
+        <v>411894.6940101743</v>
       </c>
       <c r="O6" t="n">
-        <v>411894.6940101741</v>
+        <v>411894.6940101743</v>
       </c>
       <c r="P6" t="n">
-        <v>367732.0887073283</v>
+        <v>367732.0887073288</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108328</v>
+        <v>12.92863350108366</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285574</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.52067551358144</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>250.8284033878936</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562134</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.954490531843357e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35884,10 +35884,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>583.2963240761467</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36203,16 +36203,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36294,7 +36294,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36692,7 +36692,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
